--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.3.10</t>
+    <t>urn:oid:1.2.250.1.213.3.3.10</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1045,6 +1045,9 @@
     <t>Jardin pédagogique et-ou thérapeutique</t>
   </si>
   <si>
+    <t>Courbe débit volume (CDV)</t>
+  </si>
+  <si>
     <t>149</t>
   </si>
   <si>
@@ -1309,6 +1312,9 @@
     <t>Arthromoteurs (genoux, épaules, coudes)</t>
   </si>
   <si>
+    <t>Attelles motorisées de mobilisation passive continue</t>
+  </si>
+  <si>
     <t>193</t>
   </si>
   <si>
@@ -1351,28 +1357,43 @@
     <t>Appareil d'imagerie volumétrique par faisceau conique (CBCT)</t>
   </si>
   <si>
+    <t>Reconstruction volumique (« Cone Beam »)</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
     <t>Fauteuil dentaire adapté au handicap moteur</t>
   </si>
   <si>
+    <t>Fauteuil permettant à un handicapé moteur de s'installer afin de bénéficier de soins dentaires</t>
+  </si>
+  <si>
     <t>201</t>
   </si>
   <si>
     <t>Laser rétinien</t>
   </si>
   <si>
+    <t>Laser qui émet une lumière de longueur d'onde spécifique qui a un effet de photocoagulation</t>
+  </si>
+  <si>
     <t>202</t>
   </si>
   <si>
     <t>Laser Yag ophtalmologique</t>
   </si>
   <si>
+    <t>Laser qui émet une lumière de longueur d'onde spécifique, dont l'effet photodisruptif va permettre la découpe de tissus essentiellement dans le segment antérieur de l'oeil (capsulotomie, iridotomie)</t>
+  </si>
+  <si>
     <t>203</t>
   </si>
   <si>
     <t>Atelier intégré d'appareillage</t>
+  </si>
+  <si>
+    <t>Atelier dédié qui permet la réalisation personnalisée de prothèses et d'orthèses rééducation complexe</t>
   </si>
   <si>
     <t>204</t>
@@ -3576,17 +3597,19 @@
       <c r="C149" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="D149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>343</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -3595,10 +3618,10 @@
         <v>46</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -3607,10 +3630,10 @@
         <v>46</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -3619,10 +3642,10 @@
         <v>46</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D153" s="2"/>
     </row>
@@ -3631,10 +3654,10 @@
         <v>46</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -3643,10 +3666,10 @@
         <v>46</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -3655,10 +3678,10 @@
         <v>46</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -3667,10 +3690,10 @@
         <v>46</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D157" s="2"/>
     </row>
@@ -3679,10 +3702,10 @@
         <v>46</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -3691,10 +3714,10 @@
         <v>46</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -3703,10 +3726,10 @@
         <v>46</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -3715,10 +3738,10 @@
         <v>46</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -3727,10 +3750,10 @@
         <v>46</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D162" s="2"/>
     </row>
@@ -3739,10 +3762,10 @@
         <v>46</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D163" s="2"/>
     </row>
@@ -3751,10 +3774,10 @@
         <v>46</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D164" s="2"/>
     </row>
@@ -3763,10 +3786,10 @@
         <v>46</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D165" s="2"/>
     </row>
@@ -3775,10 +3798,10 @@
         <v>46</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D166" s="2"/>
     </row>
@@ -3787,10 +3810,10 @@
         <v>46</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -3799,10 +3822,10 @@
         <v>46</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -3811,10 +3834,10 @@
         <v>46</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D169" s="2"/>
     </row>
@@ -3823,10 +3846,10 @@
         <v>46</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D170" s="2"/>
     </row>
@@ -3835,10 +3858,10 @@
         <v>46</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D171" s="2"/>
     </row>
@@ -3847,10 +3870,10 @@
         <v>46</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D172" s="2"/>
     </row>
@@ -3859,10 +3882,10 @@
         <v>46</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D173" s="2"/>
     </row>
@@ -3871,10 +3894,10 @@
         <v>46</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -3883,10 +3906,10 @@
         <v>46</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D175" s="2"/>
     </row>
@@ -3895,10 +3918,10 @@
         <v>46</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -3907,10 +3930,10 @@
         <v>46</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -3919,10 +3942,10 @@
         <v>46</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -3931,10 +3954,10 @@
         <v>46</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D179" s="2"/>
     </row>
@@ -3943,10 +3966,10 @@
         <v>46</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D180" s="2"/>
     </row>
@@ -3955,10 +3978,10 @@
         <v>46</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -3967,10 +3990,10 @@
         <v>46</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -3979,10 +4002,10 @@
         <v>46</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -3991,10 +4014,10 @@
         <v>46</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -4003,10 +4026,10 @@
         <v>46</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -4015,10 +4038,10 @@
         <v>46</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -4027,10 +4050,10 @@
         <v>46</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D187" s="2"/>
     </row>
@@ -4039,10 +4062,10 @@
         <v>46</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D188" s="2"/>
     </row>
@@ -4051,10 +4074,10 @@
         <v>46</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D189" s="2"/>
     </row>
@@ -4063,10 +4086,10 @@
         <v>46</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D190" s="2"/>
     </row>
@@ -4075,10 +4098,10 @@
         <v>46</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D191" s="2"/>
     </row>
@@ -4087,10 +4110,10 @@
         <v>46</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D192" s="2"/>
     </row>
@@ -4099,22 +4122,24 @@
         <v>46</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="D193" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>432</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D194" s="2"/>
     </row>
@@ -4123,10 +4148,10 @@
         <v>46</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -4135,10 +4160,10 @@
         <v>46</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D196" s="2"/>
     </row>
@@ -4147,10 +4172,10 @@
         <v>46</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D197" s="2"/>
     </row>
@@ -4159,10 +4184,10 @@
         <v>46</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -4171,10 +4196,10 @@
         <v>46</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -4183,70 +4208,80 @@
         <v>46</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="D200" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="D200" t="s" s="2">
+        <v>447</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="D201" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="D201" t="s" s="2">
+        <v>450</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="D202" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="D202" t="s" s="2">
+        <v>453</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="D203" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="D203" t="s" s="2">
+        <v>456</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="D204" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="D204" t="s" s="2">
+        <v>459</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -4255,10 +4290,10 @@
         <v>46</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -4267,10 +4302,10 @@
         <v>46</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -4279,10 +4314,10 @@
         <v>46</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -4291,10 +4326,10 @@
         <v>46</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -4303,10 +4338,10 @@
         <v>46</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -4315,10 +4350,10 @@
         <v>46</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D211" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -742,13 +742,19 @@
     <t>098</t>
   </si>
   <si>
-    <t>Bassin thérapeutique pour balnéothérapie (&lt;20m2)</t>
+    <t>Bassin thérapeutique pour balnéothérapie (&lt;25m2)</t>
+  </si>
+  <si>
+    <t>Ensemble de soins reposant sur l'immersion du corps ou d'une partie du corps dans un bassin d'eau (inférieur à 25 m²) à des fins thérapeutiques</t>
   </si>
   <si>
     <t>099</t>
   </si>
   <si>
-    <t>Piscine pour balnéothérapie (&gt;20m2)</t>
+    <t>Bassin thérapeutique pour balnéothérapie (&gt;=25m2)</t>
+  </si>
+  <si>
+    <t>Plateau technique spécialisé constitué par un bassin permettant l'immersion du corps ou d'une partie du corps dans un bassin d'eau (supérieur à 25 m²) à des fins thérapeutiques, équipé de dispositifs de levage et de rampes d'accès au bassin</t>
   </si>
   <si>
     <t>100</t>
@@ -1436,6 +1442,18 @@
   </si>
   <si>
     <t>Arthromoteurs membres supérieurs (épaules, coudes)</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Salle hybride</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Vidéo assistance</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2997,29 +3015,33 @@
       <c r="C99" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>243</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="D100" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>246</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -3028,10 +3050,10 @@
         <v>46</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D102" s="2"/>
     </row>
@@ -3040,10 +3062,10 @@
         <v>46</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D103" s="2"/>
     </row>
@@ -3052,10 +3074,10 @@
         <v>46</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -3064,10 +3086,10 @@
         <v>46</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D105" s="2"/>
     </row>
@@ -3076,10 +3098,10 @@
         <v>46</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D106" s="2"/>
     </row>
@@ -3088,10 +3110,10 @@
         <v>46</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D107" s="2"/>
     </row>
@@ -3100,10 +3122,10 @@
         <v>46</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -3112,10 +3134,10 @@
         <v>46</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -3124,10 +3146,10 @@
         <v>46</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D110" s="2"/>
     </row>
@@ -3136,10 +3158,10 @@
         <v>46</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -3148,10 +3170,10 @@
         <v>46</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -3160,10 +3182,10 @@
         <v>46</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -3172,10 +3194,10 @@
         <v>46</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -3184,10 +3206,10 @@
         <v>46</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -3196,10 +3218,10 @@
         <v>46</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -3208,10 +3230,10 @@
         <v>46</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -3220,10 +3242,10 @@
         <v>46</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D118" s="2"/>
     </row>
@@ -3232,10 +3254,10 @@
         <v>46</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -3244,10 +3266,10 @@
         <v>46</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -3256,10 +3278,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -3268,10 +3290,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D122" s="2"/>
     </row>
@@ -3280,10 +3302,10 @@
         <v>46</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -3292,10 +3314,10 @@
         <v>46</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -3304,10 +3326,10 @@
         <v>46</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D125" s="2"/>
     </row>
@@ -3316,10 +3338,10 @@
         <v>46</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D126" s="2"/>
     </row>
@@ -3328,10 +3350,10 @@
         <v>46</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D127" s="2"/>
     </row>
@@ -3340,10 +3362,10 @@
         <v>46</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -3352,10 +3374,10 @@
         <v>46</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D129" s="2"/>
     </row>
@@ -3364,10 +3386,10 @@
         <v>46</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -3376,10 +3398,10 @@
         <v>46</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -3388,10 +3410,10 @@
         <v>46</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -3400,10 +3422,10 @@
         <v>46</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D133" s="2"/>
     </row>
@@ -3412,10 +3434,10 @@
         <v>46</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D134" s="2"/>
     </row>
@@ -3424,10 +3446,10 @@
         <v>46</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -3436,10 +3458,10 @@
         <v>46</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D136" s="2"/>
     </row>
@@ -3448,10 +3470,10 @@
         <v>46</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D137" s="2"/>
     </row>
@@ -3460,10 +3482,10 @@
         <v>46</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D138" s="2"/>
     </row>
@@ -3472,10 +3494,10 @@
         <v>46</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D139" s="2"/>
     </row>
@@ -3484,10 +3506,10 @@
         <v>46</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D140" s="2"/>
     </row>
@@ -3496,10 +3518,10 @@
         <v>46</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D141" s="2"/>
     </row>
@@ -3508,10 +3530,10 @@
         <v>46</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D142" s="2"/>
     </row>
@@ -3520,10 +3542,10 @@
         <v>46</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -3532,10 +3554,10 @@
         <v>46</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D144" s="2"/>
     </row>
@@ -3544,10 +3566,10 @@
         <v>46</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D145" s="2"/>
     </row>
@@ -3556,10 +3578,10 @@
         <v>46</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D146" s="2"/>
     </row>
@@ -3568,10 +3590,10 @@
         <v>46</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D147" s="2"/>
     </row>
@@ -3580,10 +3602,10 @@
         <v>46</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -3592,13 +3614,13 @@
         <v>46</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="150">
@@ -3606,10 +3628,10 @@
         <v>46</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -3618,10 +3640,10 @@
         <v>46</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -3630,10 +3652,10 @@
         <v>46</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -3642,10 +3664,10 @@
         <v>46</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D153" s="2"/>
     </row>
@@ -3654,10 +3676,10 @@
         <v>46</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -3666,10 +3688,10 @@
         <v>46</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -3678,10 +3700,10 @@
         <v>46</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -3690,10 +3712,10 @@
         <v>46</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D157" s="2"/>
     </row>
@@ -3702,10 +3724,10 @@
         <v>46</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -3714,10 +3736,10 @@
         <v>46</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -3726,10 +3748,10 @@
         <v>46</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -3738,10 +3760,10 @@
         <v>46</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -3750,10 +3772,10 @@
         <v>46</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D162" s="2"/>
     </row>
@@ -3762,10 +3784,10 @@
         <v>46</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D163" s="2"/>
     </row>
@@ -3774,10 +3796,10 @@
         <v>46</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D164" s="2"/>
     </row>
@@ -3786,10 +3808,10 @@
         <v>46</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D165" s="2"/>
     </row>
@@ -3798,10 +3820,10 @@
         <v>46</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D166" s="2"/>
     </row>
@@ -3810,10 +3832,10 @@
         <v>46</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -3822,10 +3844,10 @@
         <v>46</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -3834,10 +3856,10 @@
         <v>46</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D169" s="2"/>
     </row>
@@ -3846,10 +3868,10 @@
         <v>46</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D170" s="2"/>
     </row>
@@ -3858,10 +3880,10 @@
         <v>46</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D171" s="2"/>
     </row>
@@ -3870,10 +3892,10 @@
         <v>46</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D172" s="2"/>
     </row>
@@ -3882,10 +3904,10 @@
         <v>46</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D173" s="2"/>
     </row>
@@ -3894,10 +3916,10 @@
         <v>46</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -3906,10 +3928,10 @@
         <v>46</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D175" s="2"/>
     </row>
@@ -3918,10 +3940,10 @@
         <v>46</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -3930,10 +3952,10 @@
         <v>46</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -3942,10 +3964,10 @@
         <v>46</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -3954,10 +3976,10 @@
         <v>46</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D179" s="2"/>
     </row>
@@ -3966,10 +3988,10 @@
         <v>46</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D180" s="2"/>
     </row>
@@ -3978,10 +4000,10 @@
         <v>46</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -3990,10 +4012,10 @@
         <v>46</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -4002,10 +4024,10 @@
         <v>46</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -4014,10 +4036,10 @@
         <v>46</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -4026,10 +4048,10 @@
         <v>46</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -4038,10 +4060,10 @@
         <v>46</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -4050,10 +4072,10 @@
         <v>46</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D187" s="2"/>
     </row>
@@ -4062,10 +4084,10 @@
         <v>46</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D188" s="2"/>
     </row>
@@ -4074,10 +4096,10 @@
         <v>46</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D189" s="2"/>
     </row>
@@ -4086,10 +4108,10 @@
         <v>46</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D190" s="2"/>
     </row>
@@ -4098,10 +4120,10 @@
         <v>46</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D191" s="2"/>
     </row>
@@ -4110,10 +4132,10 @@
         <v>46</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D192" s="2"/>
     </row>
@@ -4122,13 +4144,13 @@
         <v>46</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194">
@@ -4136,10 +4158,10 @@
         <v>46</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D194" s="2"/>
     </row>
@@ -4148,10 +4170,10 @@
         <v>46</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -4160,10 +4182,10 @@
         <v>46</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D196" s="2"/>
     </row>
@@ -4172,10 +4194,10 @@
         <v>46</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D197" s="2"/>
     </row>
@@ -4184,10 +4206,10 @@
         <v>46</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -4196,10 +4218,10 @@
         <v>46</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -4208,13 +4230,13 @@
         <v>46</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="201">
@@ -4222,13 +4244,13 @@
         <v>46</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202">
@@ -4236,13 +4258,13 @@
         <v>46</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="203">
@@ -4250,13 +4272,13 @@
         <v>46</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204">
@@ -4264,13 +4286,13 @@
         <v>46</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="205">
@@ -4278,10 +4300,10 @@
         <v>46</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -4290,10 +4312,10 @@
         <v>46</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -4302,10 +4324,10 @@
         <v>46</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -4314,10 +4336,10 @@
         <v>46</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -4326,10 +4348,10 @@
         <v>46</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -4338,10 +4360,10 @@
         <v>46</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -4350,12 +4372,36 @@
         <v>46</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D211" s="2"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="D213" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -1587,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1693,63 +1699,71 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1766,52 +1780,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1829,2577 +1843,2577 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D213" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1460,6 +1460,30 @@
   </si>
   <si>
     <t>Vidéo assistance</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Dermatoscope connecté</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Débitmètre de pointe adulte / enfant (peakflow)</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Otoscope connecté</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stéthoscope connecté</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4417,6 +4441,54 @@
       </c>
       <c r="D213" s="2"/>
     </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C214" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C215" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C216" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="D217" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -820,7 +820,7 @@
     <t>109</t>
   </si>
   <si>
-    <t>Equipement de rééducation pour obésité massive</t>
+    <t>Equipement adapté à l'obésité massive (&lt; 180 kg)</t>
   </si>
   <si>
     <t>110</t>
@@ -919,6 +919,9 @@
     <t>Gymnase</t>
   </si>
   <si>
+    <t>Espace intérieur spécialement conçu pour la pratique de sports et d'activités physiques, notamment en groupe</t>
+  </si>
+  <si>
     <t>126</t>
   </si>
   <si>
@@ -937,6 +940,9 @@
     <t>Plateforme multitest équilibre</t>
   </si>
   <si>
+    <t>Plateforme de posturographie statique et dynamique informatisée</t>
+  </si>
+  <si>
     <t>129</t>
   </si>
   <si>
@@ -1484,6 +1490,30 @@
   </si>
   <si>
     <t>Stéthoscope connecté</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Appareil de pressothérapie</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>Dispositif d'électrostimulation fonctionnelle</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Parcours de marche</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>ECG portable</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3381,17 +3411,19 @@
       <c r="C126" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>301</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D127" s="2"/>
     </row>
@@ -3400,10 +3432,10 @@
         <v>48</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -3412,22 +3444,24 @@
         <v>48</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>308</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -3436,10 +3470,10 @@
         <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -3448,10 +3482,10 @@
         <v>48</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -3460,10 +3494,10 @@
         <v>48</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D133" s="2"/>
     </row>
@@ -3472,10 +3506,10 @@
         <v>48</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D134" s="2"/>
     </row>
@@ -3484,10 +3518,10 @@
         <v>48</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -3496,10 +3530,10 @@
         <v>48</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D136" s="2"/>
     </row>
@@ -3508,10 +3542,10 @@
         <v>48</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D137" s="2"/>
     </row>
@@ -3520,10 +3554,10 @@
         <v>48</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D138" s="2"/>
     </row>
@@ -3532,10 +3566,10 @@
         <v>48</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D139" s="2"/>
     </row>
@@ -3544,10 +3578,10 @@
         <v>48</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D140" s="2"/>
     </row>
@@ -3556,10 +3590,10 @@
         <v>48</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D141" s="2"/>
     </row>
@@ -3568,10 +3602,10 @@
         <v>48</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D142" s="2"/>
     </row>
@@ -3580,10 +3614,10 @@
         <v>48</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -3592,10 +3626,10 @@
         <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D144" s="2"/>
     </row>
@@ -3604,10 +3638,10 @@
         <v>48</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D145" s="2"/>
     </row>
@@ -3616,10 +3650,10 @@
         <v>48</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D146" s="2"/>
     </row>
@@ -3628,10 +3662,10 @@
         <v>48</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D147" s="2"/>
     </row>
@@ -3640,10 +3674,10 @@
         <v>48</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -3652,13 +3686,13 @@
         <v>48</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="150">
@@ -3666,10 +3700,10 @@
         <v>48</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -3678,10 +3712,10 @@
         <v>48</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -3690,10 +3724,10 @@
         <v>48</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -3702,10 +3736,10 @@
         <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D153" s="2"/>
     </row>
@@ -3714,10 +3748,10 @@
         <v>48</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -3726,10 +3760,10 @@
         <v>48</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -3738,10 +3772,10 @@
         <v>48</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -3750,10 +3784,10 @@
         <v>48</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D157" s="2"/>
     </row>
@@ -3762,10 +3796,10 @@
         <v>48</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -3774,10 +3808,10 @@
         <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -3786,10 +3820,10 @@
         <v>48</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -3798,10 +3832,10 @@
         <v>48</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -3810,10 +3844,10 @@
         <v>48</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D162" s="2"/>
     </row>
@@ -3822,10 +3856,10 @@
         <v>48</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D163" s="2"/>
     </row>
@@ -3834,10 +3868,10 @@
         <v>48</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D164" s="2"/>
     </row>
@@ -3846,10 +3880,10 @@
         <v>48</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D165" s="2"/>
     </row>
@@ -3858,10 +3892,10 @@
         <v>48</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D166" s="2"/>
     </row>
@@ -3870,10 +3904,10 @@
         <v>48</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -3882,10 +3916,10 @@
         <v>48</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -3894,10 +3928,10 @@
         <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D169" s="2"/>
     </row>
@@ -3906,10 +3940,10 @@
         <v>48</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D170" s="2"/>
     </row>
@@ -3918,10 +3952,10 @@
         <v>48</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D171" s="2"/>
     </row>
@@ -3930,10 +3964,10 @@
         <v>48</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D172" s="2"/>
     </row>
@@ -3942,10 +3976,10 @@
         <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D173" s="2"/>
     </row>
@@ -3954,10 +3988,10 @@
         <v>48</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -3966,10 +4000,10 @@
         <v>48</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D175" s="2"/>
     </row>
@@ -3978,10 +4012,10 @@
         <v>48</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -3990,10 +4024,10 @@
         <v>48</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -4002,10 +4036,10 @@
         <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -4014,10 +4048,10 @@
         <v>48</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D179" s="2"/>
     </row>
@@ -4026,10 +4060,10 @@
         <v>48</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D180" s="2"/>
     </row>
@@ -4038,10 +4072,10 @@
         <v>48</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -4050,10 +4084,10 @@
         <v>48</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -4062,10 +4096,10 @@
         <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -4074,10 +4108,10 @@
         <v>48</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -4086,10 +4120,10 @@
         <v>48</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -4098,10 +4132,10 @@
         <v>48</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -4110,10 +4144,10 @@
         <v>48</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D187" s="2"/>
     </row>
@@ -4122,10 +4156,10 @@
         <v>48</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D188" s="2"/>
     </row>
@@ -4134,10 +4168,10 @@
         <v>48</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D189" s="2"/>
     </row>
@@ -4146,10 +4180,10 @@
         <v>48</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D190" s="2"/>
     </row>
@@ -4158,10 +4192,10 @@
         <v>48</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D191" s="2"/>
     </row>
@@ -4170,10 +4204,10 @@
         <v>48</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D192" s="2"/>
     </row>
@@ -4182,13 +4216,13 @@
         <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="194">
@@ -4196,10 +4230,10 @@
         <v>48</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D194" s="2"/>
     </row>
@@ -4208,10 +4242,10 @@
         <v>48</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -4220,10 +4254,10 @@
         <v>48</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D196" s="2"/>
     </row>
@@ -4232,10 +4266,10 @@
         <v>48</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D197" s="2"/>
     </row>
@@ -4244,10 +4278,10 @@
         <v>48</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -4256,10 +4290,10 @@
         <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -4268,13 +4302,13 @@
         <v>48</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201">
@@ -4282,13 +4316,13 @@
         <v>48</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="202">
@@ -4296,13 +4330,13 @@
         <v>48</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="203">
@@ -4310,13 +4344,13 @@
         <v>48</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="204">
@@ -4324,13 +4358,13 @@
         <v>48</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205">
@@ -4338,10 +4372,10 @@
         <v>48</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -4350,10 +4384,10 @@
         <v>48</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -4362,10 +4396,10 @@
         <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -4374,10 +4408,10 @@
         <v>48</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -4386,10 +4420,10 @@
         <v>48</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -4398,10 +4432,10 @@
         <v>48</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -4410,10 +4444,10 @@
         <v>48</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D211" s="2"/>
     </row>
@@ -4422,10 +4456,10 @@
         <v>48</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D212" s="2"/>
     </row>
@@ -4434,10 +4468,10 @@
         <v>48</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D213" s="2"/>
     </row>
@@ -4446,10 +4480,10 @@
         <v>48</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D214" s="2"/>
     </row>
@@ -4458,10 +4492,10 @@
         <v>48</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D215" s="2"/>
     </row>
@@ -4470,10 +4504,10 @@
         <v>48</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -4482,12 +4516,60 @@
         <v>48</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D217" s="2"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="D221" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2024-10-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -787,12 +787,18 @@
     <t>Assistant robotisé à la marche</t>
   </si>
   <si>
+    <t>Exosquelette d'aide à la marche</t>
+  </si>
+  <si>
     <t>104</t>
   </si>
   <si>
     <t>Assistant robotisé des membres supérieurs et de la préhension</t>
   </si>
   <si>
+    <t>Exosquelette d'assistance motorisé pour les membres supérieurs</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
@@ -805,6 +811,9 @@
     <t>Laboratoire d'analyse tridimensionnelle du mouvement, de la marche</t>
   </si>
   <si>
+    <t>Analyse cinétique, cinématique et électromyographique du mouvement</t>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
@@ -820,7 +829,7 @@
     <t>109</t>
   </si>
   <si>
-    <t>Equipement adapté à l'obésité massive (&lt; 180 kg)</t>
+    <t>Equipement de rééducation adapté à l'obésité</t>
   </si>
   <si>
     <t>110</t>
@@ -865,6 +874,9 @@
     <t>Appartement pour mise en situation d'autonomie</t>
   </si>
   <si>
+    <t>Structure disposant d'appartements qui permettent de tester les capacités d'autonomie d'une personne en situation de dépendance.</t>
+  </si>
+  <si>
     <t>117</t>
   </si>
   <si>
@@ -926,6 +938,9 @@
   </si>
   <si>
     <t>Cuisine thérapeutique et éducative</t>
+  </si>
+  <si>
+    <t>Cuisine ayant les meubles de différentes tailles ou à niveau variable, adaptés aux déficiences et incapacités des patients</t>
   </si>
   <si>
     <t>127</t>
@@ -3147,29 +3162,33 @@
       <c r="C104" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>257</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="D105" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>260</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D106" s="2"/>
     </row>
@@ -3178,22 +3197,24 @@
         <v>48</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="D107" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>265</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -3202,10 +3223,10 @@
         <v>48</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -3214,10 +3235,10 @@
         <v>48</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D110" s="2"/>
     </row>
@@ -3226,10 +3247,10 @@
         <v>48</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -3238,10 +3259,10 @@
         <v>48</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -3250,10 +3271,10 @@
         <v>48</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -3262,10 +3283,10 @@
         <v>48</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -3274,10 +3295,10 @@
         <v>48</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -3286,10 +3307,10 @@
         <v>48</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -3298,22 +3319,24 @@
         <v>48</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="D117" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>286</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D118" s="2"/>
     </row>
@@ -3322,10 +3345,10 @@
         <v>48</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -3334,10 +3357,10 @@
         <v>48</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -3346,10 +3369,10 @@
         <v>48</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -3358,10 +3381,10 @@
         <v>48</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D122" s="2"/>
     </row>
@@ -3370,10 +3393,10 @@
         <v>48</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -3382,10 +3405,10 @@
         <v>48</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -3394,10 +3417,10 @@
         <v>48</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D125" s="2"/>
     </row>
@@ -3406,13 +3429,13 @@
         <v>48</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127">
@@ -3420,22 +3443,24 @@
         <v>48</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>308</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -3444,13 +3469,13 @@
         <v>48</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130">
@@ -3458,10 +3483,10 @@
         <v>48</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -3470,10 +3495,10 @@
         <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -3482,10 +3507,10 @@
         <v>48</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -3494,10 +3519,10 @@
         <v>48</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D133" s="2"/>
     </row>
@@ -3506,10 +3531,10 @@
         <v>48</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D134" s="2"/>
     </row>
@@ -3518,10 +3543,10 @@
         <v>48</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -3530,10 +3555,10 @@
         <v>48</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D136" s="2"/>
     </row>
@@ -3542,10 +3567,10 @@
         <v>48</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D137" s="2"/>
     </row>
@@ -3554,10 +3579,10 @@
         <v>48</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D138" s="2"/>
     </row>
@@ -3566,10 +3591,10 @@
         <v>48</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D139" s="2"/>
     </row>
@@ -3578,10 +3603,10 @@
         <v>48</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D140" s="2"/>
     </row>
@@ -3590,10 +3615,10 @@
         <v>48</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D141" s="2"/>
     </row>
@@ -3602,10 +3627,10 @@
         <v>48</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D142" s="2"/>
     </row>
@@ -3614,10 +3639,10 @@
         <v>48</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -3626,10 +3651,10 @@
         <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D144" s="2"/>
     </row>
@@ -3638,10 +3663,10 @@
         <v>48</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D145" s="2"/>
     </row>
@@ -3650,10 +3675,10 @@
         <v>48</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D146" s="2"/>
     </row>
@@ -3662,10 +3687,10 @@
         <v>48</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D147" s="2"/>
     </row>
@@ -3674,10 +3699,10 @@
         <v>48</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -3686,13 +3711,13 @@
         <v>48</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150">
@@ -3700,10 +3725,10 @@
         <v>48</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -3712,10 +3737,10 @@
         <v>48</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -3724,10 +3749,10 @@
         <v>48</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -3736,10 +3761,10 @@
         <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D153" s="2"/>
     </row>
@@ -3748,10 +3773,10 @@
         <v>48</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -3760,10 +3785,10 @@
         <v>48</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -3772,10 +3797,10 @@
         <v>48</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -3784,10 +3809,10 @@
         <v>48</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D157" s="2"/>
     </row>
@@ -3796,10 +3821,10 @@
         <v>48</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -3808,10 +3833,10 @@
         <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -3820,10 +3845,10 @@
         <v>48</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -3832,10 +3857,10 @@
         <v>48</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -3844,10 +3869,10 @@
         <v>48</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D162" s="2"/>
     </row>
@@ -3856,10 +3881,10 @@
         <v>48</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D163" s="2"/>
     </row>
@@ -3868,10 +3893,10 @@
         <v>48</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D164" s="2"/>
     </row>
@@ -3880,10 +3905,10 @@
         <v>48</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D165" s="2"/>
     </row>
@@ -3892,10 +3917,10 @@
         <v>48</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D166" s="2"/>
     </row>
@@ -3904,10 +3929,10 @@
         <v>48</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -3916,10 +3941,10 @@
         <v>48</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -3928,10 +3953,10 @@
         <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D169" s="2"/>
     </row>
@@ -3940,10 +3965,10 @@
         <v>48</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D170" s="2"/>
     </row>
@@ -3952,10 +3977,10 @@
         <v>48</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D171" s="2"/>
     </row>
@@ -3964,10 +3989,10 @@
         <v>48</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D172" s="2"/>
     </row>
@@ -3976,10 +4001,10 @@
         <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D173" s="2"/>
     </row>
@@ -3988,10 +4013,10 @@
         <v>48</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -4000,10 +4025,10 @@
         <v>48</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D175" s="2"/>
     </row>
@@ -4012,10 +4037,10 @@
         <v>48</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -4024,10 +4049,10 @@
         <v>48</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -4036,10 +4061,10 @@
         <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -4048,10 +4073,10 @@
         <v>48</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D179" s="2"/>
     </row>
@@ -4060,10 +4085,10 @@
         <v>48</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D180" s="2"/>
     </row>
@@ -4072,10 +4097,10 @@
         <v>48</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -4084,10 +4109,10 @@
         <v>48</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -4096,10 +4121,10 @@
         <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -4108,10 +4133,10 @@
         <v>48</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -4120,10 +4145,10 @@
         <v>48</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -4132,10 +4157,10 @@
         <v>48</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -4144,10 +4169,10 @@
         <v>48</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D187" s="2"/>
     </row>
@@ -4156,10 +4181,10 @@
         <v>48</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D188" s="2"/>
     </row>
@@ -4168,10 +4193,10 @@
         <v>48</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D189" s="2"/>
     </row>
@@ -4180,10 +4205,10 @@
         <v>48</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D190" s="2"/>
     </row>
@@ -4192,10 +4217,10 @@
         <v>48</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D191" s="2"/>
     </row>
@@ -4204,10 +4229,10 @@
         <v>48</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D192" s="2"/>
     </row>
@@ -4216,13 +4241,13 @@
         <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="194">
@@ -4230,10 +4255,10 @@
         <v>48</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D194" s="2"/>
     </row>
@@ -4242,10 +4267,10 @@
         <v>48</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -4254,10 +4279,10 @@
         <v>48</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D196" s="2"/>
     </row>
@@ -4266,10 +4291,10 @@
         <v>48</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D197" s="2"/>
     </row>
@@ -4278,10 +4303,10 @@
         <v>48</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -4290,10 +4315,10 @@
         <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -4302,13 +4327,13 @@
         <v>48</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="201">
@@ -4316,13 +4341,13 @@
         <v>48</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="202">
@@ -4330,13 +4355,13 @@
         <v>48</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="203">
@@ -4344,13 +4369,13 @@
         <v>48</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204">
@@ -4358,13 +4383,13 @@
         <v>48</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205">
@@ -4372,10 +4397,10 @@
         <v>48</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -4384,10 +4409,10 @@
         <v>48</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -4396,10 +4421,10 @@
         <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -4408,10 +4433,10 @@
         <v>48</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -4420,10 +4445,10 @@
         <v>48</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -4432,10 +4457,10 @@
         <v>48</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -4444,10 +4469,10 @@
         <v>48</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D211" s="2"/>
     </row>
@@ -4456,10 +4481,10 @@
         <v>48</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D212" s="2"/>
     </row>
@@ -4468,10 +4493,10 @@
         <v>48</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D213" s="2"/>
     </row>
@@ -4480,10 +4505,10 @@
         <v>48</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D214" s="2"/>
     </row>
@@ -4492,10 +4517,10 @@
         <v>48</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D215" s="2"/>
     </row>
@@ -4504,10 +4529,10 @@
         <v>48</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -4516,10 +4541,10 @@
         <v>48</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D217" s="2"/>
     </row>
@@ -4528,10 +4553,10 @@
         <v>48</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D218" s="2"/>
     </row>
@@ -4540,10 +4565,10 @@
         <v>48</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D219" s="2"/>
     </row>
@@ -4552,10 +4577,10 @@
         <v>48</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D220" s="2"/>
     </row>
@@ -4564,10 +4589,10 @@
         <v>48</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D221" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -658,7 +658,7 @@
     <t>083</t>
   </si>
   <si>
-    <t>Table de radiologie obésité (poids entre 150 et 250 kg) - bariatrique</t>
+    <t>Table de radiologie interventionnelle obésité (poids entre 150 et 250 kg) – bariatrique</t>
   </si>
   <si>
     <t>084</t>
@@ -829,7 +829,7 @@
     <t>109</t>
   </si>
   <si>
-    <t>Equipement de rééducation adapté à l'obésité</t>
+    <t>Equipement de réadaptation pour obésité massive</t>
   </si>
   <si>
     <t>110</t>
@@ -1529,6 +1529,48 @@
   </si>
   <si>
     <t>ECG portable</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>IRM obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Scanner (TDM) obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Table d’accouchement obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Chambre adaptée obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Table de radiologie interventionnelle obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Table de bloc opératoire obésité – bariatrique</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4596,6 +4638,90 @@
       </c>
       <c r="D221" s="2"/>
     </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C224" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="D228" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/ig/main/CodeSystem-TRE-R212-Equipement.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
